--- a/sorted_data/où/visualisations/file_for_insitu_classification/où_insitu.xlsx
+++ b/sorted_data/où/visualisations/file_for_insitu_classification/où_insitu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/interrogatives-corpus-work/sorted_data/où/visualisations/file_for_insitu_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4097BA-2018-2E4D-85A7-6B2B1DC8F655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0EBEB5-60FD-2443-8FDD-EB66ED70EE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="811">
   <si>
     <t>Mot exact</t>
   </si>
@@ -2450,6 +2450,9 @@
   </si>
   <si>
     <t>LEC_BT824</t>
+  </si>
+  <si>
+    <t>classification</t>
   </si>
 </sst>
 </file>
@@ -2854,7 +2857,7 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2875,7 +2878,9 @@
       <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>810</v>
+      </c>
       <c r="G1" s="1">
         <v>5</v>
       </c>

--- a/sorted_data/où/visualisations/file_for_insitu_classification/où_insitu.xlsx
+++ b/sorted_data/où/visualisations/file_for_insitu_classification/où_insitu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caterinabonan/Desktop/GitHubRepos/interrogatives-corpus-work/sorted_data/où/visualisations/file_for_insitu_classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0EBEB5-60FD-2443-8FDD-EB66ED70EE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412B4B23-00F2-F44C-B714-4BDF258C2C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68800" yWindow="-10300" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2857,10 +2857,13 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G259" sqref="G259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="105.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
